--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_42/metrics/Trial_87__Reeval_LHS_Modell_2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_42/metrics/Trial_87__Reeval_LHS_Modell_2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>True Values Train</t>
   </si>
@@ -35,10 +35,10 @@
     <t>Predictions Test</t>
   </si>
   <si>
-    <t>Chart_Y</t>
+    <t>Chart_X</t>
   </si>
   <si>
-    <t>Chart_X</t>
+    <t>Chart_Y</t>
   </si>
   <si>
     <t>Epoch</t>
@@ -5839,7 +5839,7 @@
                   <c:v>358.3652954101562</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>343.9788818359375</c:v>
+                  <c:v>343.9788513183594</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>367.6873168945312</c:v>
@@ -5893,7 +5893,7 @@
                   <c:v>354.4273681640625</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>355.8154296875</c:v>
+                  <c:v>355.8154602050781</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>341.3201599121094</c:v>
@@ -5920,7 +5920,7 @@
                   <c:v>350.8734436035156</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>341.3232727050781</c:v>
+                  <c:v>341.3232421875</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>349.40185546875</c:v>
@@ -5941,7 +5941,7 @@
                   <c:v>353.6588745117188</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>355.8980712890625</c:v>
+                  <c:v>355.8981018066406</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>341.3239135742188</c:v>
@@ -5965,7 +5965,7 @@
                   <c:v>352.6539916992188</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>355.0945129394531</c:v>
+                  <c:v>355.0945434570312</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>355.9112854003906</c:v>
@@ -5977,7 +5977,7 @@
                   <c:v>349.599853515625</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>360.9703979492188</c:v>
+                  <c:v>360.9703674316406</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>349.9906921386719</c:v>
@@ -5998,7 +5998,7 @@
                   <c:v>355.8299560546875</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>347.4074401855469</c:v>
+                  <c:v>347.407470703125</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>341.3498840332031</c:v>
@@ -6013,7 +6013,7 @@
                   <c:v>352.6626892089844</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>339.4336853027344</c:v>
+                  <c:v>339.4337158203125</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>358.3377685546875</c:v>
@@ -6131,7 +6131,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$2:$H$3</c:f>
+              <c:f>All_Data!$R$2:$R$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6146,7 +6146,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$2:$G$3</c:f>
+              <c:f>All_Data!$S$2:$S$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6175,7 +6175,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$4:$H$5</c:f>
+              <c:f>All_Data!$R$4:$R$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6190,7 +6190,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$4:$G$5</c:f>
+              <c:f>All_Data!$S$4:$S$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6219,7 +6219,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$6:$H$7</c:f>
+              <c:f>All_Data!$R$6:$R$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6234,7 +6234,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$6:$G$7</c:f>
+              <c:f>All_Data!$S$6:$S$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6746,13 +6746,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H777"/>
+  <dimension ref="A1:S777"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6777,8 +6777,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>355.739</v>
       </c>
@@ -6803,8 +6809,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>359.326</v>
       </c>
@@ -6829,8 +6841,14 @@
       <c r="H3">
         <v>371</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="R3">
+        <v>371</v>
+      </c>
+      <c r="S3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>340.662</v>
       </c>
@@ -6850,13 +6868,19 @@
         <v>351.8572082519531</v>
       </c>
       <c r="G4">
+        <v>371</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="R4">
         <v>371</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>336.328</v>
       </c>
@@ -6881,8 +6905,14 @@
       <c r="H5">
         <v>371</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="R5">
+        <v>371</v>
+      </c>
+      <c r="S5">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>341.263</v>
       </c>
@@ -6902,13 +6932,19 @@
         <v>355.7909240722656</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>371</v>
       </c>
-      <c r="H6">
+      <c r="R6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="S6">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>358.25</v>
       </c>
@@ -6933,8 +6969,14 @@
       <c r="H7">
         <v>371</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="R7">
+        <v>371</v>
+      </c>
+      <c r="S7">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>355.891</v>
       </c>
@@ -6954,7 +6996,7 @@
         <v>339.4331970214844</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>340.957</v>
       </c>
@@ -6974,7 +7016,7 @@
         <v>358.3652954101562</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>365.59</v>
       </c>
@@ -6991,10 +7033,10 @@
         <v>338.576</v>
       </c>
       <c r="F10">
-        <v>343.9788818359375</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>343.9788513183594</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>359.512</v>
       </c>
@@ -7014,7 +7056,7 @@
         <v>367.6873168945312</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>349.72</v>
       </c>
@@ -7034,7 +7076,7 @@
         <v>341.6779174804688</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>355.672</v>
       </c>
@@ -7054,7 +7096,7 @@
         <v>350.7311401367188</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>359.602</v>
       </c>
@@ -7074,7 +7116,7 @@
         <v>355.7908935546875</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>361.211</v>
       </c>
@@ -7094,7 +7136,7 @@
         <v>342.7925109863281</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>330.866</v>
       </c>
@@ -7351,7 +7393,7 @@
         <v>358.352</v>
       </c>
       <c r="F28">
-        <v>355.8154296875</v>
+        <v>355.8154602050781</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7531,7 +7573,7 @@
         <v>359.357</v>
       </c>
       <c r="F37">
-        <v>341.3232727050781</v>
+        <v>341.3232421875</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7671,7 +7713,7 @@
         <v>358.779</v>
       </c>
       <c r="F44">
-        <v>355.8980712890625</v>
+        <v>355.8981018066406</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7831,7 +7873,7 @@
         <v>358.138</v>
       </c>
       <c r="F52">
-        <v>355.0945129394531</v>
+        <v>355.0945434570312</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7911,7 +7953,7 @@
         <v>337.386</v>
       </c>
       <c r="F56">
-        <v>360.9703979492188</v>
+        <v>360.9703674316406</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8051,7 +8093,7 @@
         <v>363.928</v>
       </c>
       <c r="F63">
-        <v>347.4074401855469</v>
+        <v>347.407470703125</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8151,7 +8193,7 @@
         <v>338.187</v>
       </c>
       <c r="F68">
-        <v>339.4336853027344</v>
+        <v>339.4337158203125</v>
       </c>
     </row>
     <row r="69" spans="1:6">
